--- a/biology/Médecine/Veine_mésentérique_supérieure/Veine_mésentérique_supérieure.xlsx
+++ b/biology/Médecine/Veine_mésentérique_supérieure/Veine_mésentérique_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine mésentérique supérieure ou grande veine mésentérique ou grande veine mésaraïque est une veine drainant le sang de l'intestin grêle (jéjunum et iléon)[1], du mésentère, d'une partie du duodénum et du côlon droit. Elle se termine avec la réunion avec la veine splénique pour former la veine porte. Elle chemine à droite de l'artère mésentérique supérieure.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine mésentérique supérieure ou grande veine mésentérique ou grande veine mésaraïque est une veine drainant le sang de l'intestin grêle (jéjunum et iléon), du mésentère, d'une partie du duodénum et du côlon droit. Elle se termine avec la réunion avec la veine splénique pour former la veine porte. Elle chemine à droite de l'artère mésentérique supérieure.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle naît dans la mésentère, près de la valvule iléo-caecale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle remonte dans le mésentère droit, longe sa racine puis croise la face antérieure du duodénum avant de passer derrière la tête du pancréas.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Afférences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elle reçoit le sang provenant de l'estomac, du pancréas, d'une partie de l'intestin grêle, du côlon droit et de l'appendice iléo-cæcal via :
 la veine gastro-épiploïque droite,
@@ -583,7 +601,7 @@
 la veine iléocolique,
 la veine appendiculaire,
 la veine colique droite,
-la veine colique moyenne[2].</t>
+la veine colique moyenne.</t>
         </is>
       </c>
     </row>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine mésentérique supérieure fusionne avec le tronc spléno-mésaraïque (issu de la veine splénique) pour former la veine porte.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Troubles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les thromboses veineuses sont assez rares, mais sont une cause d'ischémie mésentérique et peuvent être fatales. Il est estimé que 10 à 15 % des ischémies mésentériques sont dues à une thrombose mésentérique[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les thromboses veineuses sont assez rares, mais sont une cause d'ischémie mésentérique et peuvent être fatales. Il est estimé que 10 à 15 % des ischémies mésentériques sont dues à une thrombose mésentérique.
 </t>
         </is>
       </c>
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Veine_m%C3%A9sent%C3%A9rique_sup%C3%A9rieure</t>
+          <t>Veine_mésentérique_supérieure</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Veine mésentérique supérieure », sur dictionnaire.academie-medecine.fr (consulté le 12 janvier 2018)
